--- a/biology/Zoologie/Conus_scopulorum/Conus_scopulorum.xlsx
+++ b/biology/Zoologie/Conus_scopulorum/Conus_scopulorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus scopulorum est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large du Île de Brasil.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique au Brésil, de l'État de Ceara à l'île Fernando de Noronha. Il n'y a pas d'enregistrement des niveaux de population pour cette espèce dans la littérature. Cette espèce n'est connue que par quelques spécimens. Il n'y a pas de menaces connues et une partie de l'aire de répartition se trouve dans une zone protégée. Cette espèce est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique au Brésil, de l'État de Ceara à l'île Fernando de Noronha. Il n'y a pas d'enregistrement des niveaux de population pour cette espèce dans la littérature. Cette espèce n'est connue que par quelques spécimens. Il n'y a pas de menaces connues et une partie de l'aire de répartition se trouve dans une zone protégée. Cette espèce est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_scopulorum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_scopulorum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus scopulorum a été décrite pour la première fois en 1971 par les malacologistes Van Mol, Tursch et Kempf dans « Zoologische Mededelingen »[2],[3].
-Synonymes
-Brasiliconus scopulorum (Van Mol, Tursch &amp; Kempf, 1971) · non accepté
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus scopulorum a été décrite pour la première fois en 1971 par les malacologistes Van Mol, Tursch et Kempf dans « Zoologische Mededelingen »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_scopulorum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_scopulorum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brasiliconus scopulorum (Van Mol, Tursch &amp; Kempf, 1971) · non accepté
 Conus (Brasiliconus) scopulorum Van Mol, Tursch &amp; Kempf, 1971 · appellation alternative
 Protoconus scopulorum (Van Mol, Tursch &amp; Kempf, 1971) · non accepté</t>
         </is>
